--- a/input_templates/niet_samen.xlsx
+++ b/input_templates/niet_samen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjoer\Documents\Willekeurige berekeningen\leerlingindeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjoer\Documents\Willekeurige berekeningen\aliexpress\input_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C541237-C697-410D-B302-8DC670D866FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38675E8E-9C61-407D-802A-6EA869580CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{9FAF4405-3C11-417C-8B64-7928014A3A2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9FAF4405-3C11-417C-8B64-7928014A3A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,13 +475,18 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.75" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -517,49 +527,58 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="15">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="15">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="15">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="15">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="15">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="15">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="15">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="15">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="15">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="4V30MyyB4GA2Ui72T8k6LCC6osL1E3bK1Lm78js6nZlyOtb6DQ4Xozby8hyRyWV4TJsVxQ4V6dckZVK/2xOpcA==" saltValue="0s19KZq7xf+k6HVlwoRXfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fout aantal" error="Dit moet een geheel getal zijn, groter dan 0." sqref="A2:A1048576" xr:uid="{71CE1C11-1A8B-4F13-BA9F-A9AB39EA7DE1}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Max aantal samen" prompt="Het maximum aantal kinderen uit de groep in de rij die bij elkaar mogen komen in 1 nieuwe groep. Moet altijd ten minste evenveel (maar liefst meer) zijn dan het aantal kinderen in deze rij gedeeld door het aantal groepen. Elke groep heeft ten minste 2 ll." sqref="A1" xr:uid="{6D180EBC-FD07-4974-B0FB-EDEC04DB795F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leerling" prompt="De naam van de leerling. Moet voorkomen in het voorkeuren-bestand._x000a_" sqref="B1" xr:uid="{2B308C78-A80A-4E39-90DF-21FB446A18D0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leerling" prompt="De naam van de leerling. Moet voorkomen in het voorkeuren-bestand." sqref="C1 D1 E1 F1 G1 H1 I1 J1 K1 L1 M1" xr:uid="{6128EBD6-BCAD-49D6-97F7-D0A29CB473C8}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input_templates/niet_samen.xlsx
+++ b/input_templates/niet_samen.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjoer\Documents\Willekeurige berekeningen\aliexpress\input_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38675E8E-9C61-407D-802A-6EA869580CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CF107F-9701-45BC-997C-E8B37DBAB7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9FAF4405-3C11-417C-8B64-7928014A3A2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FAF4405-3C11-417C-8B64-7928014A3A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -475,7 +476,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -581,4 +582,16 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A663C3-E7BB-4001-8AAE-6D7A95C2F03C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>